--- a/runner/Report.xlsx
+++ b/runner/Report.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="测试总况" sheetId="1" r:id="rId1"/>
     <sheet name="测试详情" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>17051515</t>
   </si>
   <si>
-    <t>2017-06-07 20:18:29</t>
+    <t>2017-07-03 14:49:42</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>30秒</t>
+    <t>27秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -89,68 +89,30 @@
     <t>截图</t>
   </si>
   <si>
+    <t>Huawei_H60-L02_android_4.4.2</t>
+  </si>
+  <si>
     <t>test0003</t>
   </si>
   <si>
+    <t>发布文章</t>
+  </si>
+  <si>
     <t>WriteTest</t>
   </si>
   <si>
     <t>失败</t>
-  </si>
-  <si>
-    <t>发布文章</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huawei_H60-L02_android_4.4.2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>samsung_GT-I9500_android_4.4</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test0001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>第一次打开</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>FirstOpenTest</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Huawei_H60-L02_android_4.4.24</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>test0002</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>LoginTest</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -158,7 +120,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -166,7 +128,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -174,15 +136,8 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -227,11 +182,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -246,7 +198,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -255,7 +207,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:style val="10"/>
   <c:chart>
     <c:title>
@@ -268,12 +220,8 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>自动化</a:t>
-            </a:r>
-            <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>测试统计</a:t>
+              <a:t>接口测试统计</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -288,7 +236,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>接口测试统计</c:v>
+            <c:v>自动化测试统计</c:v>
           </c:tx>
           <c:cat>
             <c:strRef>
@@ -311,7 +259,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -333,7 +281,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -341,7 +289,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -387,33 +335,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>2238374</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>2379607</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="登录CheckPoint_1_NG.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="发布文章CheckPoint_1_NG.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7600949" y="3571874"/>
-          <a:ext cx="1762125" cy="2217683"/>
+          <a:off x="3048000" y="571500"/>
+          <a:ext cx="1028700" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -426,7 +374,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -712,97 +660,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="5" width="20.75" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="22.5">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
-        <v>2</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <v>1</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -810,7 +759,6 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="E4:E6"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -818,110 +766,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="33.125" customWidth="1"/>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="37.125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="195.75" customHeight="1">
-      <c r="A5" s="1" t="s">
+    <row r="3" spans="1:7" ht="110" customHeight="1">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>28</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/runner/Report.xlsx
+++ b/runner/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -35,16 +35,16 @@
     <t>测试日期</t>
   </si>
   <si>
-    <t>'简书'</t>
-  </si>
-  <si>
-    <t>14M</t>
-  </si>
-  <si>
-    <t>17051515</t>
-  </si>
-  <si>
-    <t>2017-07-03 14:49:42</t>
+    <t>weblink</t>
+  </si>
+  <si>
+    <t>25M</t>
+  </si>
+  <si>
+    <t>1.2.3</t>
+  </si>
+  <si>
+    <t>2017-09-23 17:28:31</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>27秒</t>
+    <t>120秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -80,28 +80,67 @@
     <t>用例介绍</t>
   </si>
   <si>
-    <t>用例名字</t>
+    <t>用例函数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">操作步骤 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点 </t>
   </si>
   <si>
     <t xml:space="preserve">测试结果 </t>
   </si>
   <si>
+    <t xml:space="preserve">备注 </t>
+  </si>
+  <si>
     <t>截图</t>
   </si>
   <si>
     <t>Huawei_H60-L02_android_4.4.2</t>
   </si>
   <si>
-    <t>test0003</t>
-  </si>
-  <si>
-    <t>发布文章</t>
-  </si>
-  <si>
-    <t>WriteTest</t>
+    <t>test0001</t>
+  </si>
+  <si>
+    <t>知识技术专区列表</t>
+  </si>
+  <si>
+    <t>TechZoneListTest</t>
+  </si>
+  <si>
+    <t>点击底部菜单的知识按钮;点击知识专区卡片;获取知识专区卡片列表的第一个数据项的标题值;获取知识专区列表卡片的第二个数据项的标题值;获取知识专区列表卡片的第三个数据项的标题值;点击左上角按钮回到列表页;</t>
+  </si>
+  <si>
+    <t>检查点步骤获取知识专区首页卡片列表的第一个数据项的标题值，并与详情页标题对比;获取知识专区首页卡片列表的第二个数据项的标题值，并与详情页标题对比;获取知识专区首页卡片列表的第三个数据项的标题值，并与详情页标题对比;</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>test0002</t>
+  </si>
+  <si>
+    <t>知识技术专区详情页</t>
+  </si>
+  <si>
+    <t>TechZoneDetailTest</t>
+  </si>
+  <si>
+    <t>点击底部menu的知识;获取首页知识技术列表第一条数据，点击进入到详情页;</t>
+  </si>
+  <si>
+    <t>获取详情页到标题</t>
   </si>
   <si>
     <t>失败</t>
+  </si>
+  <si>
+    <t>请检查元素//*[@id="app"]/div/div[2]/section[2]/div[1]/div是否存在</t>
   </si>
 </sst>
 </file>
@@ -259,7 +298,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -334,20 +373,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="发布文章CheckPoint_1_NG.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="知识技术专区详情页CheckPoint_1_NG.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -360,7 +399,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3048000" y="571500"/>
+          <a:off x="4876800" y="952500"/>
           <a:ext cx="1028700" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -700,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -717,7 +756,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -766,13 +805,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -782,8 +821,10 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1">
+    <row r="2" spans="1:9" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -802,27 +843,72 @@
       <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="G2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="110" customHeight="1">
+    <row r="3" spans="1:9" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" ht="110" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>28</v>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/runner/Report.xlsx
+++ b/runner/Report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +44,7 @@
     <t>1.2.3</t>
   </si>
   <si>
-    <t>2017-09-23 17:28:31</t>
+    <t>2017-10-18 14:39:30</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +59,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>120秒</t>
+    <t>123秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -83,6 +83,9 @@
     <t>用例函数</t>
   </si>
   <si>
+    <t>前置条件</t>
+  </si>
+  <si>
     <t xml:space="preserve">操作步骤 </t>
   </si>
   <si>
@@ -98,10 +101,10 @@
     <t>截图</t>
   </si>
   <si>
-    <t>Huawei_H60-L02_android_4.4.2</t>
-  </si>
-  <si>
-    <t>test0001</t>
+    <t>HUAWEI_NEXT_android_6.0</t>
+  </si>
+  <si>
+    <t>test0003</t>
   </si>
   <si>
     <t>知识技术专区列表</t>
@@ -110,37 +113,52 @@
     <t>TechZoneListTest</t>
   </si>
   <si>
-    <t>点击底部菜单的知识按钮;点击知识专区卡片;获取知识专区卡片列表的第一个数据项的标题值;获取知识专区列表卡片的第二个数据项的标题值;获取知识专区列表卡片的第三个数据项的标题值;点击左上角按钮回到列表页;</t>
-  </si>
-  <si>
-    <t>检查点步骤获取知识专区首页卡片列表的第一个数据项的标题值，并与详情页标题对比;获取知识专区首页卡片列表的第二个数据项的标题值，并与详情页标题对比;获取知识专区首页卡片列表的第三个数据项的标题值，并与详情页标题对比;</t>
+    <t>技术卡片放在首页第一位</t>
+  </si>
+  <si>
+    <t>点击底部菜单的知识按钮;点击取消更新;点击技术专区卡片进入到技术专区列表;获取技术专区卡片列表的第一个数据项的标题值;获取技术专区列表卡片的第二个数据项的标题值;获取技术专区列表卡片的第三个数据项的标题值;点击左上角按钮回到列表页;</t>
+  </si>
+  <si>
+    <t>检查点步骤获取首页技术专区卡片列表的第一个数据项的标题值，并与详情页标题对比;获取首页技术专区卡片列表的第二个数据项的标题值，并与详情页标题对比;获取首页技术专区卡片列表的第三个数据项的标题值，并与详情页标题对比;</t>
+  </si>
+  <si>
+    <t>失败</t>
+  </si>
+  <si>
+    <t>首页到知识专区到列表三条数据和详情页到三条数据对不上。详情页三条数据为：['Linux下模拟网络损伤', 'A标签跳转前做校验', 'Linux下模拟网络损伤']。首页当前匹配数据为:由于参数配置错误导致安装部署失败问题案例及解决办法</t>
+  </si>
+  <si>
+    <t>test0002</t>
+  </si>
+  <si>
+    <t>知识技术专区详情页</t>
+  </si>
+  <si>
+    <t>TechZoneDetailTest</t>
+  </si>
+  <si>
+    <t>点击底部menu的知识;点击取消更新;获取首页知识技术列表第一条数据;点击首页技术列表第一条数据进入到详情页;</t>
+  </si>
+  <si>
+    <t>获取详情页到标题，并与首页第一条数据标题进行对比</t>
   </si>
   <si>
     <t>通过</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>test0002</t>
-  </si>
-  <si>
-    <t>知识技术专区详情页</t>
-  </si>
-  <si>
-    <t>TechZoneDetailTest</t>
-  </si>
-  <si>
-    <t>点击底部menu的知识;获取首页知识技术列表第一条数据，点击进入到详情页;</t>
-  </si>
-  <si>
-    <t>获取详情页到标题</t>
-  </si>
-  <si>
-    <t>失败</t>
-  </si>
-  <si>
-    <t>请检查元素//*[@id="app"]/div/div[2]/section[2]/div[1]/div是否存在</t>
+    <t>test0004</t>
+  </si>
+  <si>
+    <t>技术专区刷新</t>
+  </si>
+  <si>
+    <t>TechZoneRefreTest</t>
+  </si>
+  <si>
+    <t>点击底部菜单的知识按钮;点击取消更新;点击技术专区到刷新按钮;获取首页技术专区卡片列表的第一个数据项的标题值;获取首页技术专区卡片列表的第二个数据项的标题值;获取首页技术专区卡片列表的第三个数据项的标题值;点击技术专区卡片进入到技术专区列表;</t>
+  </si>
+  <si>
+    <t>检查点步骤获取技术专区卡片列表的第一个数据项的标题值;获取技术专区列表卡片的第二个数据项的标题值;获取技术专区列表卡片的第三个数据项的标题值;</t>
   </si>
 </sst>
 </file>
@@ -260,7 +278,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>接口测试统计</a:t>
+              <a:t>测试统计</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -298,7 +316,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -373,20 +391,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="知识技术专区详情页CheckPoint_1_NG.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="知识技术专区列表CheckPoint_1_NG.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -399,7 +417,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4876800" y="952500"/>
+          <a:off x="13096875" y="571500"/>
           <a:ext cx="1028700" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -739,7 +757,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>15</v>
@@ -756,7 +774,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>16</v>
@@ -805,13 +823,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="30.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -823,8 +853,9 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1">
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>18</v>
       </c>
@@ -852,63 +883,104 @@
       <c r="I2" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1">
+      <c r="J2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="110" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="3"/>
-    </row>
-    <row r="4" spans="1:9" ht="110" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
+        <v>42</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10" ht="30" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1"/>
+    <row r="7" spans="1:10" ht="30" customHeight="1"/>
+    <row r="8" spans="1:10" ht="30" customHeight="1"/>
+    <row r="9" spans="1:10" ht="30" customHeight="1"/>
+    <row r="10" spans="1:10" ht="30" customHeight="1"/>
+    <row r="11" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/runner/Report.xlsx
+++ b/runner/Report.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28705"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="测试总况" sheetId="1" r:id="rId1"/>
     <sheet name="测试详情" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="139">
   <si>
     <t>测试报告总概况</t>
   </si>
@@ -44,7 +49,7 @@
     <t>1.2.3</t>
   </si>
   <si>
-    <t>2017-10-18 14:39:30</t>
+    <t>2017-11-03 16:42:28</t>
   </si>
   <si>
     <t>用例总数</t>
@@ -59,7 +64,7 @@
     <t>测试耗时</t>
   </si>
   <si>
-    <t>123秒</t>
+    <t>810秒</t>
   </si>
   <si>
     <t>脚本语言</t>
@@ -101,75 +106,491 @@
     <t>截图</t>
   </si>
   <si>
-    <t>HUAWEI_NEXT_android_6.0</t>
-  </si>
-  <si>
-    <t>test0003</t>
-  </si>
-  <si>
-    <t>知识技术专区列表</t>
-  </si>
-  <si>
-    <t>TechZoneListTest</t>
-  </si>
-  <si>
-    <t>技术卡片放在首页第一位</t>
-  </si>
-  <si>
-    <t>点击底部菜单的知识按钮;点击取消更新;点击技术专区卡片进入到技术专区列表;获取技术专区卡片列表的第一个数据项的标题值;获取技术专区列表卡片的第二个数据项的标题值;获取技术专区列表卡片的第三个数据项的标题值;点击左上角按钮回到列表页;</t>
-  </si>
-  <si>
-    <t>检查点步骤获取首页技术专区卡片列表的第一个数据项的标题值，并与详情页标题对比;获取首页技术专区卡片列表的第二个数据项的标题值，并与详情页标题对比;获取首页技术专区卡片列表的第三个数据项的标题值，并与详情页标题对比;</t>
+    <t>HUAWEI_CARRERA_android_6.0</t>
+  </si>
+  <si>
+    <t>test010</t>
+  </si>
+  <si>
+    <t>清除缓存</t>
+  </si>
+  <si>
+    <t>testA1ClearCache</t>
+  </si>
+  <si>
+    <t>打开知识，我的收藏有数据</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击知识
+点击个人图片
+点击设置
+点击清理缓存
+点击立即清理缓存
+点击我知道了
+点击返回按钮
+点击个人中心的返回按钮
+点击首页历史记录按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤查找是否存清空缓存成功
+</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>test013</t>
+  </si>
+  <si>
+    <t>无浏览历史页面检测</t>
+  </si>
+  <si>
+    <t>testA2NoHistory</t>
+  </si>
+  <si>
+    <t>打开知识页面</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击知识
+点击历史记录按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤查找不存在浏览记录
+</t>
+  </si>
+  <si>
+    <t>test0006</t>
+  </si>
+  <si>
+    <t>微社区浏览历史</t>
+  </si>
+  <si>
+    <t>testBWeiBBSHistory</t>
+  </si>
+  <si>
+    <t>打开知识</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击测试微群
+点击微社区
+点击第一个话题
+获取发布话题的标题
+点击返回按钮
+再次点击返回按钮
+点击历史记录按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤查找是否存在历史记录
+</t>
   </si>
   <si>
     <t>失败</t>
   </si>
   <si>
-    <t>首页到知识专区到列表三条数据和详情页到三条数据对不上。详情页三条数据为：['Linux下模拟网络损伤', 'A标签跳转前做校验', 'Linux下模拟网络损伤']。首页当前匹配数据为:由于参数配置错误导致安装部署失败问题案例及解决办法</t>
-  </si>
-  <si>
-    <t>test0002</t>
-  </si>
-  <si>
-    <t>知识技术专区详情页</t>
-  </si>
-  <si>
-    <t>TechZoneDetailTest</t>
-  </si>
-  <si>
-    <t>点击底部menu的知识;点击取消更新;获取首页知识技术列表第一条数据;点击首页技术列表第一条数据进入到详情页;</t>
-  </si>
-  <si>
-    <t>获取详情页到标题，并与首页第一条数据标题进行对比</t>
-  </si>
-  <si>
-    <t>通过</t>
-  </si>
-  <si>
-    <t>test0004</t>
-  </si>
-  <si>
-    <t>技术专区刷新</t>
-  </si>
-  <si>
-    <t>TechZoneRefreTest</t>
-  </si>
-  <si>
-    <t>点击底部菜单的知识按钮;点击取消更新;点击技术专区到刷新按钮;获取首页技术专区卡片列表的第一个数据项的标题值;获取首页技术专区卡片列表的第二个数据项的标题值;获取首页技术专区卡片列表的第三个数据项的标题值;点击技术专区卡片进入到技术专区列表;</t>
-  </si>
-  <si>
-    <t>检查点步骤获取技术专区卡片列表的第一个数据项的标题值;获取技术专区列表卡片的第二个数据项的标题值;获取技术专区列表卡片的第三个数据项的标题值;</t>
+    <t>执行过程中失败，请检查元素是否存在//android.widget.ListView/android.widget.TextView[2]</t>
+  </si>
+  <si>
+    <t>test005</t>
+  </si>
+  <si>
+    <t>banner浏览历史</t>
+  </si>
+  <si>
+    <t>testBannerHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击banner图片
+得到详情页标题值
+点击返回按钮
+点击首页历史记录按钮
+</t>
+  </si>
+  <si>
+    <t>test008</t>
+  </si>
+  <si>
+    <t>部门公告浏览记录</t>
+  </si>
+  <si>
+    <t>testDeptNoticeHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取我部门公告卡片下第一条数据对标题
+点击部门公告卡片下对第一条数据
+查找详情页的内容
+点击返回按钮
+点击首页历史记录按钮
+</t>
+  </si>
+  <si>
+    <t>test009</t>
+  </si>
+  <si>
+    <t>知识搜索进入详情页历史记录</t>
+  </si>
+  <si>
+    <t>testHomeSearchHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击知识
+点击搜索框
+输入搜索关键字最
+回车
+点击一条搜索的数据
+查找详情页到标题
+点击返回按钮
+点击取消按钮
+点击首页历史记录按钮
+</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>知识首页下拉刷新</t>
+  </si>
+  <si>
+    <t>testHomeSwipeDown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下拉刷新
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤查找下拉刷新按钮状态是否存在
+</t>
+  </si>
+  <si>
+    <t>多次微社区浏览历史</t>
+  </si>
+  <si>
+    <t>testManyHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击知识
+点击测试微群
+点击微社区
+点击第一个话题
+获取发布话题的标题
+点击返回按钮
+再次点击第一个话题
+点击返回按钮
+再次点击返回按钮
+点击历史记录按钮
+</t>
+  </si>
+  <si>
+    <t>test007</t>
+  </si>
+  <si>
+    <t>我的课程浏览记录</t>
+  </si>
+  <si>
+    <t>testMyClassHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取我的课程卡片下第一条数据对标题
+点击我的课程卡片下对第一条数据
+查找详情页到标题
+点击返回按钮
+点击首页历史记录按钮
+</t>
+  </si>
+  <si>
+    <t>无权限查看不在浏览历史显示</t>
+  </si>
+  <si>
+    <t>testNoAccessHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击部门公告tab
+获取部门公告下的第一条数据
+点击部门公告下的第一条数据
+点击部门公告下的第一条数据
+点击返回按钮
+点击历史记录按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤查找应该不存在历史记录
+</t>
+  </si>
+  <si>
+    <t>test004</t>
+  </si>
+  <si>
+    <t>技术专区详情页收藏</t>
+  </si>
+  <si>
+    <t>testTechCollect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击技术专区下对第一条数据
+查找详情页到标题
+点击收藏按钮
+点击返回按钮
+点击个人图片
+点击收藏
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤检测下我收藏的第一条数据是否正确
+</t>
+  </si>
+  <si>
+    <t>技术专区浏览记录</t>
+  </si>
+  <si>
+    <t>testTechHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">获取技术专区下第一条数据对标题
+点击技术专区下对第一条数据
+查找详情页到标题
+点击返回按钮
+点击首页历史记录按钮
+</t>
+  </si>
+  <si>
+    <t>知识页面技术专区卡片不为空检测</t>
+  </si>
+  <si>
+    <t>testTechNotNull</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击知识
+点击历史记录按钮
+点击返回按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤查找技术专区卡片下数据不为空
+</t>
+  </si>
+  <si>
+    <t>知识头条浏览历史</t>
+  </si>
+  <si>
+    <t>testTopNewHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击知识头条的标题
+得到详情页到标题
+点击返回按钮
+点击首页历史记录按钮
+</t>
+  </si>
+  <si>
+    <t>test011</t>
+  </si>
+  <si>
+    <t>删除技术专区</t>
+  </si>
+  <si>
+    <t>testZDelHomeCard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击设置卡片按钮
+点击删除按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤检测技术专区是卡片否删除成功
+</t>
+  </si>
+  <si>
+    <t>test022</t>
+  </si>
+  <si>
+    <t>从浏览历史进入到详情页</t>
+  </si>
+  <si>
+    <t>testADetail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击首页历史记录按钮
+获取历史记录下的第一条数据
+点击历史记录下的第一条数据
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤查找是否打开详情页
+</t>
+  </si>
+  <si>
+    <t>test014</t>
+  </si>
+  <si>
+    <t>滑动删除浏览历史中的数据</t>
+  </si>
+  <si>
+    <t>testBSwipeDelHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击首页历史记录按钮
+获取历史记录下的第一条数据
+左滑动历史记录下的第一条数据
+点击删除按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤查找是否删除成功
+</t>
+  </si>
+  <si>
+    <t>test023</t>
+  </si>
+  <si>
+    <t>多选框删除阅读历史</t>
+  </si>
+  <si>
+    <t>testCCheckBoxDel</t>
+  </si>
+  <si>
+    <t>打开知识，有多条阅读历史</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击首页历史记录按钮
+点击编辑按钮
+获取历史记录下的第一条数据
+获取历史记录下的第二条数据
+选择第一条数据到多选框
+选择第二条数据到多选框
+点击删除按钮
+确认删除
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤获取历史记录下的第一条数据并对比删除之前的值
+获取历史记录下的第二条数据并对比删除之前的值
+</t>
+  </si>
+  <si>
+    <t>一键清空阅读历史</t>
+  </si>
+  <si>
+    <t>testZDelALl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击首页历史记录按钮
+点击编辑按钮
+点击一键清空
+确认清空
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤查找确认清空成功
+</t>
+  </si>
+  <si>
+    <t>通讯录查看动态浏览记录</t>
+  </si>
+  <si>
+    <t>testContactHistory</t>
+  </si>
+  <si>
+    <t>登陆打开weblink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击通讯录
+点击通讯录下的第一条数据
+点击动态列表第一条数据
+得到情页到标题
+点击返回按钮
+再次点击返回按钮
+点击底部菜单知识
+点击首页历史记录按钮
+</t>
+  </si>
+  <si>
+    <t>我的收藏浏览历史记录</t>
+  </si>
+  <si>
+    <t>testAMyCollectHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击知识
+点击个人图片
+点击我的收藏
+点击我的收藏下的第一条数据
+查找详情页到标题
+点击返回按钮
+再次点击返回按钮
+点击个人中心的返回按钮
+点击首页历史记录按钮
+</t>
+  </si>
+  <si>
+    <t>test019</t>
+  </si>
+  <si>
+    <t>拖动排序知识卡片</t>
+  </si>
+  <si>
+    <t>CardsTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击排序卡片按钮
+得到第二个卡片的值
+得到第一卡片的坐标
+得到第二个卡片的坐标并拖动
+点击返回按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤检测卡片是否排序成功
+</t>
+  </si>
+  <si>
+    <t>test020</t>
+  </si>
+  <si>
+    <t>卡片列表下删除卡片</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击排序卡片按钮
+得到第一个卡片的值
+点击删除按钮
+确认删除卡片
+点击返回按钮
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤检测卡片是否删除成功
+</t>
+  </si>
+  <si>
+    <t>未加入团队首页</t>
+  </si>
+  <si>
+    <t>testAOtherTeamHome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">点击更多
+点击推荐团队下的第一个团队
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">检查点步骤检测是否进入到了团队首页
+</t>
+  </si>
+  <si>
+    <t>成功</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -177,7 +598,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -185,7 +606,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -193,7 +614,13 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -239,8 +666,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -255,7 +685,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -264,8 +694,17 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:style val="10"/>
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="110"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="10"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -284,7 +723,9 @@
         </c:rich>
       </c:tx>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:pieChart>
@@ -316,21 +757,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -338,11 +789,13 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -393,18 +846,18 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="知识技术专区列表CheckPoint_1_NG.png"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="微社区浏览历史CheckPoint_1_NG.png"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -417,7 +870,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13096875" y="571500"/>
+          <a:off x="13096875" y="1333500"/>
           <a:ext cx="1028700" cy="1828800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -714,101 +1167,100 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="5" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="21">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
+        <v>24</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
+        <v>22</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -816,173 +1268,761 @@
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="E4:E6"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.7109375" customWidth="1"/>
-    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="2" max="10" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" ht="21">
+      <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="110" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:10" ht="30" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="30" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="110" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1">
+      <c r="A6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="110" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="30" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="30" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="30" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="30" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="30" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="30" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="30" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="30" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="30" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="30" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="3" t="s">
+      <c r="F23" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="30" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1"/>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="8" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10" ht="30" customHeight="1"/>
-    <row r="10" spans="1:10" ht="30" customHeight="1"/>
-    <row r="11" spans="1:10" ht="30" customHeight="1"/>
+      <c r="F24" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>